--- a/Herman - Test Scenario.xlsx
+++ b/Herman - Test Scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Gold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4588D92-3C81-4846-85CB-C7F7C951AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68379923-61EA-4859-A5F3-91D7F7B4C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Website" sheetId="2" r:id="rId1"/>
     <sheet name="Apps" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -267,6 +267,24 @@
   </si>
   <si>
     <t>Second hand Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User got to Secondhand.Binaracademy.org
+2. User click Masuk
+3. User click Daftar disini
+4. User input Field Nama lengkap
+5. User input registered Email
+6. user input Valid Password
+5. User click Daftar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daftar button clickable and redirect to Secondhand registered homepage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Registered email
+- Password requirement
+</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -400,6 +418,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD407930-29AD-4F4C-AA29-32A463163A5F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -690,18 +711,18 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
+      <c r="A5" s="1">
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -729,8 +750,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="116.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="1">
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -758,8 +779,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
+      <c r="A7" s="1">
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
@@ -787,8 +808,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
+      <c r="A8" s="1">
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>

--- a/Herman - Test Scenario.xlsx
+++ b/Herman - Test Scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70fac21acc1ce4f6/Desktop/Challenge 1 08 Oct 23 Gold/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68379923-61EA-4859-A5F3-91D7F7B4C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{68379923-61EA-4859-A5F3-91D7F7B4C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12671A5D-9789-4D17-8222-62D57B3E1C1F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -65,202 +65,10 @@
     <t>Positive</t>
   </si>
   <si>
-    <t xml:space="preserve">1. User got to Gofundme.com
-2. User click sign up
-3. User input the name field with alfabet
-4. User input registered email
-5. User Input valid password
-6. User click sign up
-</t>
-  </si>
-  <si>
-    <t>Sign up button able to be click and redirect to verification page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Registered email
-- Password requirement
-At least 12 characters
-1 uppercase letter
-1 lowercase letter
-1 number
-1 symbol
-</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>User sign up with registered phone number</t>
-  </si>
-  <si>
-    <t>1. User got to Gofundme.com
-2. User click sign up
-3. User input the name field with alfabet
-4. User input registered email
-5. User Input valid password
-6. User click sign up
-7. User redirect to phone verification page
-8. User input a registerd phone number
-9. User Input the verification code
-10. User redirect to registered Home page Gofundme</t>
-  </si>
-  <si>
-    <t>User sign up successfully and redirect to registered Home Page</t>
-  </si>
-  <si>
-    <t>- Registered email
-- Password requirement
-At least 12 characters
-1 uppercase letter
-1 lowercase letter
-1 number
-1 symbol
-- Registered phone number</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>User sign up with password that do not meet the requirement</t>
-  </si>
-  <si>
     <t>TC.REG.001.002</t>
   </si>
   <si>
     <t>Negative</t>
-  </si>
-  <si>
-    <t>User can not sign up, sign up button can not be click, and password field will be highlighted</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>User sign up with registered Email and unregistered phone number</t>
-  </si>
-  <si>
-    <t>TC.REG.001.003</t>
-  </si>
-  <si>
-    <t>User did not get the verification code and user can not input verification code randomly</t>
-  </si>
-  <si>
-    <t>- Registered email
-- Password requirement
-At least 12 characters
-1 uppercase letter
-1 lowercase letter
-1 number
-1 symbol
-- unregistered phone number</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>User sign up with random verification code</t>
-  </si>
-  <si>
-    <t>TC.REG.001.004</t>
-  </si>
-  <si>
-    <t>User will not be verified and wrong verification code notice will appear</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. User got to Gofundme.com
-2. User click sign up
-3. User input the name field with alfabet
-4. User input registered email
-5. User Input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Password that do not meet the requirement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-6. User click sign up
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. User got to Gofundme.com
-2. User click sign up
-3. User input the name field with alfabet
-4. User input registered email
-5. User Input valid password
-6. User click sign up
-7. User redirect to phone verification code
-8. User input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">an unregisterd phone number
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">9. User input verification code randomly
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. User got to Gofundme.com
-2. User click sign up
-3. User input the name field with alfabet
-4. User input registered email
-5. User Input valid password
-6. User click sign up
-7. User redirect to phone verification code
-8. User input a registerd phone number
-9. User Input the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>verification code randomly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>https://secondhand.binaracademy.org/</t>
@@ -285,6 +93,73 @@
     <t xml:space="preserve">- Registered email
 - Password requirement
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. User got to Secondhand.Binaracademy.org
+2. User click Masuk
+3. User click Daftar disini
+4. User input field Nama Lengkap
+5. User input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>unregistered Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6. user input Valid Password
+5. User click Daftar
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Daftar button unclickable and did not redirect to Secondhand registered homepage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Unregistered email
+- Password requirement
+</t>
+  </si>
+  <si>
+    <t>Psotive</t>
+  </si>
+  <si>
+    <t>Filter function</t>
+  </si>
+  <si>
+    <t>1. User run test case TC.REG.001.001
+2. User click fliter button</t>
+  </si>
+  <si>
+    <t>- Registered email ( TC.REG.001.001 )</t>
+  </si>
+  <si>
+    <t>Filter button clickable and showing item as per item category</t>
+  </si>
+  <si>
+    <t>TC.FIL.001.001</t>
+  </si>
+  <si>
+    <t>TS.FIL.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User sign up registered email and find email </t>
+  </si>
+  <si>
+    <t>User sign up with unregistered email</t>
   </si>
 </sst>
 </file>
@@ -319,7 +194,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -420,6 +301,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,14 +535,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD407930-29AD-4F4C-AA29-32A463163A5F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.81640625" customWidth="1"/>
@@ -658,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -711,16 +607,16 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="116.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -731,110 +627,74 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="116.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -847,7 +707,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -858,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -891,150 +751,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="116.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="218" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="203.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="203.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Herman - Test Scenario.xlsx
+++ b/Herman - Test Scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70fac21acc1ce4f6/Desktop/Challenge 1 08 Oct 23 Gold/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{68379923-61EA-4859-A5F3-91D7F7B4C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12671A5D-9789-4D17-8222-62D57B3E1C1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028301F5-FB74-4A9E-9E05-B7D9FD7A88BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,32 +134,32 @@
 </t>
   </si>
   <si>
-    <t>Psotive</t>
-  </si>
-  <si>
     <t>Filter function</t>
   </si>
   <si>
-    <t>1. User run test case TC.REG.001.001
+    <t>- Registered email ( TC.REG.001.001 )</t>
+  </si>
+  <si>
+    <t>Filter button clickable and showing item as per item category</t>
+  </si>
+  <si>
+    <t>TC.FIL.001.001</t>
+  </si>
+  <si>
+    <t>TS.FIL.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User sign up registered email and find email </t>
+  </si>
+  <si>
+    <t>User sign up with unregistered email</t>
+  </si>
+  <si>
+    <t>Postive</t>
+  </si>
+  <si>
+    <t>1.TC.REG.001.001
 2. User click fliter button</t>
-  </si>
-  <si>
-    <t>- Registered email ( TC.REG.001.001 )</t>
-  </si>
-  <si>
-    <t>Filter button clickable and showing item as per item category</t>
-  </si>
-  <si>
-    <t>TC.FIL.001.001</t>
-  </si>
-  <si>
-    <t>TS.FIL.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User sign up registered email and find email </t>
-  </si>
-  <si>
-    <t>User sign up with unregistered email</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -307,15 +307,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD407930-29AD-4F4C-AA29-32A463163A5F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -548,7 +539,7 @@
     <col min="5" max="5" width="14.81640625" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.36328125" customWidth="1"/>
     <col min="9" max="9" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -646,32 +637,32 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">

--- a/Herman - Test Scenario.xlsx
+++ b/Herman - Test Scenario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70fac21acc1ce4f6/Desktop/Challenge 1 08 Oct 23 Gold/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{68379923-61EA-4859-A5F3-91D7F7B4C479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12671A5D-9789-4D17-8222-62D57B3E1C1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DAEDC-12F6-415F-B847-2418C461347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -307,15 +307,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD407930-29AD-4F4C-AA29-32A463163A5F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -646,36 +637,38 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -686,7 +679,9 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -707,7 +702,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -752,7 +747,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -763,7 +760,9 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -774,7 +773,9 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -785,7 +786,9 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -796,7 +799,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>

--- a/Herman - Test Scenario.xlsx
+++ b/Herman - Test Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DAEDC-12F6-415F-B847-2418C461347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4B5AF-987B-4D2A-A0C9-8B9B28BB21CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
 </t>
   </si>
   <si>
-    <t>Psotive</t>
-  </si>
-  <si>
     <t>Filter function</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>User sign up with unregistered email</t>
+  </si>
+  <si>
+    <t>Postive</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -641,28 +641,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">

--- a/Herman - Test Scenario.xlsx
+++ b/Herman - Test Scenario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Challenge 1 08 Oct 23 Gold\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4B5AF-987B-4D2A-A0C9-8B9B28BB21CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F949D229-B35E-4C2C-BAE5-D7D459FE0DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Website" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -87,9 +87,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Daftar button clickable and redirect to Secondhand registered homepage </t>
-  </si>
-  <si>
     <t xml:space="preserve">- Registered email
 - Password requirement
 </t>
@@ -126,9 +123,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Daftar button unclickable and did not redirect to Secondhand registered homepage </t>
-  </si>
-  <si>
     <t xml:space="preserve">- Unregistered email
 - Password requirement
 </t>
@@ -137,36 +131,180 @@
     <t>Filter function</t>
   </si>
   <si>
-    <t>1. User run test case TC.REG.001.001
+    <t>- Registered email ( TC.REG.001.001 )</t>
+  </si>
+  <si>
+    <t>Filter button clickable and showing item as per item category</t>
+  </si>
+  <si>
+    <t>TC.FIL.001.001</t>
+  </si>
+  <si>
+    <t>TS.FIL.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User sign up registered email and find email </t>
+  </si>
+  <si>
+    <t>User sign up with unregistered email</t>
+  </si>
+  <si>
+    <t>Postive</t>
+  </si>
+  <si>
+    <t>TS.REG.APP.001</t>
+  </si>
+  <si>
+    <t>TS.REG.APP.001.001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. User got Secondhand App
+2. User click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Masuk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. User click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Daftar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. User input Field Name
+5. User input registered Email
+6. user input Valid Password
+7. User input Phone number
+8. User input City
+9. User input Address
+10. User click Daftar
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Daftar button clickable and redirect to Secondhand homepage with account registered</t>
+  </si>
+  <si>
+    <t>Daftar button unclickable and did not redirect to Secondhand homepage with account registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Registered email
+- Password requirement
+- Registered Phone number
+- Address with valid format
+</t>
+  </si>
+  <si>
+    <t>1. TC.REG.001.001
 2. User click fliter button</t>
   </si>
   <si>
-    <t>- Registered email ( TC.REG.001.001 )</t>
-  </si>
-  <si>
-    <t>Filter button clickable and showing item as per item category</t>
-  </si>
-  <si>
-    <t>TC.FIL.001.001</t>
-  </si>
-  <si>
-    <t>TS.FIL.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User sign up registered email and find email </t>
-  </si>
-  <si>
-    <t>User sign up with unregistered email</t>
-  </si>
-  <si>
-    <t>Postive</t>
+    <t>TS.REG.APP.001.002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. User got Secondhand App
+2. User click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Masuk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. User click </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Daftar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. User input Field Name
+5. User input Unregistered Email
+6. user input Valid Password
+7. User input Phone number
+8. User input City
+9. User input Address
+10. User click Daftar
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Daftar button can be click and redirect to Secondhand app with account registered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Unregistered email
+- Password requirement
+- Registered Phone number
+- Address with valid format
+</t>
+  </si>
+  <si>
+    <t>TS.REG.APP.001.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daftar button cannot be click and can not redirect to Secondhand app with account registered </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,6 +327,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -526,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD407930-29AD-4F4C-AA29-32A463163A5F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="F4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -601,10 +746,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="116.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -618,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -627,13 +772,13 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -641,28 +786,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -701,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C6AC74-E050-43B3-AC92-C5C250423505}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -746,41 +891,83 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="160" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="174.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
